--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Projetos\Review_Article_interactive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Projetos\ArticleReview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B378621-E2C7-4710-8D2E-65F678C36FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B372799-3FDD-46F6-87D4-40BF23B6CBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5044,18 +5044,9 @@
     <t>Isochrysis</t>
   </si>
   <si>
-    <t>Biopesticide</t>
-  </si>
-  <si>
     <t>Biofertilizer &amp; Biostimulant</t>
   </si>
   <si>
-    <t>Biostimulant &amp; Biopesticide</t>
-  </si>
-  <si>
-    <t>Biofertilizer &amp; Biopesticide</t>
-  </si>
-  <si>
     <t>Seed treatment &amp; Via root</t>
   </si>
   <si>
@@ -6269,6 +6260,15 @@
   </si>
   <si>
     <t>Scale</t>
+  </si>
+  <si>
+    <t>Biocontrol</t>
+  </si>
+  <si>
+    <t>Biostimulant &amp; Biocontrol</t>
+  </si>
+  <si>
+    <t>Biofertilizer &amp; Biocontrol</t>
   </si>
 </sst>
 </file>
@@ -6360,7 +6360,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6377,7 +6377,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6699,8 +6699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="AB14" workbookViewId="0">
+      <selection activeCell="AU24" sqref="AU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6745,7 +6745,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -6870,7 +6870,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="D2" t="s">
         <v>347</v>
@@ -6924,7 +6924,7 @@
         <v>1266</v>
       </c>
       <c r="AL2" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM2" t="s">
         <v>1289</v>
@@ -6938,7 +6938,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="D3" t="s">
         <v>348</v>
@@ -6992,7 +6992,7 @@
         <v>1266</v>
       </c>
       <c r="AL3" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM3" t="s">
         <v>1290</v>
@@ -7006,7 +7006,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D4" t="s">
         <v>349</v>
@@ -7060,7 +7060,7 @@
         <v>1261</v>
       </c>
       <c r="AL4" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM4" t="s">
         <v>1291</v>
@@ -7074,7 +7074,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D5" t="s">
         <v>350</v>
@@ -7128,7 +7128,7 @@
         <v>1266</v>
       </c>
       <c r="AL5" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM5" t="s">
         <v>1292</v>
@@ -7142,7 +7142,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D6" t="s">
         <v>351</v>
@@ -7193,7 +7193,7 @@
         <v>1240</v>
       </c>
       <c r="AK6" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL6" t="s">
         <v>1283</v>
@@ -7210,7 +7210,7 @@
         <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="D7" t="s">
         <v>352</v>
@@ -7278,7 +7278,7 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="D8" t="s">
         <v>353</v>
@@ -7329,7 +7329,7 @@
         <v>1239</v>
       </c>
       <c r="AK8" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="AL8" t="s">
         <v>1283</v>
@@ -7346,7 +7346,7 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="D9" t="s">
         <v>354</v>
@@ -7397,7 +7397,7 @@
         <v>1239</v>
       </c>
       <c r="AK9" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL9" t="s">
         <v>1283</v>
@@ -7414,7 +7414,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="D10" t="s">
         <v>353</v>
@@ -7465,7 +7465,7 @@
         <v>1239</v>
       </c>
       <c r="AK10" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL10" t="s">
         <v>1283</v>
@@ -7482,7 +7482,7 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D11" t="s">
         <v>354</v>
@@ -7559,7 +7559,7 @@
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="D12" t="s">
         <v>355</v>
@@ -7630,7 +7630,7 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="D13" t="s">
         <v>354</v>
@@ -7698,7 +7698,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D14" t="s">
         <v>356</v>
@@ -7778,7 +7778,7 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="D15" t="s">
         <v>348</v>
@@ -7846,7 +7846,7 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="D16" t="s">
         <v>354</v>
@@ -7903,7 +7903,7 @@
         <v>1239</v>
       </c>
       <c r="AK16" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL16" t="s">
         <v>1283</v>
@@ -7920,7 +7920,7 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D17" t="s">
         <v>357</v>
@@ -7988,7 +7988,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="D18" t="s">
         <v>347</v>
@@ -8039,7 +8039,7 @@
         <v>1239</v>
       </c>
       <c r="AK18" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL18" t="s">
         <v>1283</v>
@@ -8056,7 +8056,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D19" t="s">
         <v>350</v>
@@ -8107,7 +8107,7 @@
         <v>1239</v>
       </c>
       <c r="AK19" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL19" t="s">
         <v>1283</v>
@@ -8124,7 +8124,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D20" t="s">
         <v>353</v>
@@ -8192,7 +8192,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="D21" t="s">
         <v>353</v>
@@ -8243,16 +8243,16 @@
         <v>1239</v>
       </c>
       <c r="AK21" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="AL21" t="s">
         <v>1283</v>
       </c>
       <c r="AM21" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="AN21" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.3">
@@ -8263,7 +8263,7 @@
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D22" t="s">
         <v>353</v>
@@ -8331,7 +8331,7 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D23" t="s">
         <v>353</v>
@@ -8399,7 +8399,7 @@
         <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D24" t="s">
         <v>353</v>
@@ -8456,7 +8456,7 @@
         <v>1239</v>
       </c>
       <c r="AK24" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL24" t="s">
         <v>1283</v>
@@ -8476,7 +8476,7 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D25" t="s">
         <v>356</v>
@@ -8544,7 +8544,7 @@
         <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D26" t="s">
         <v>355</v>
@@ -8592,7 +8592,7 @@
         <v>1604</v>
       </c>
       <c r="AJ26" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK26" t="s">
         <v>1266</v>
@@ -8612,7 +8612,7 @@
         <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="D27" t="s">
         <v>355</v>
@@ -8660,10 +8660,10 @@
         <v>1438</v>
       </c>
       <c r="AJ27" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK27" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL27" t="s">
         <v>1284</v>
@@ -8680,7 +8680,7 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="D28" t="s">
         <v>358</v>
@@ -8748,7 +8748,7 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D29" t="s">
         <v>355</v>
@@ -8799,7 +8799,7 @@
         <v>1240</v>
       </c>
       <c r="AK29" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="AL29" t="s">
         <v>1283</v>
@@ -8816,7 +8816,7 @@
         <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="D30" t="s">
         <v>359</v>
@@ -8884,7 +8884,7 @@
         <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D31" t="s">
         <v>348</v>
@@ -8932,13 +8932,13 @@
         <v>1605</v>
       </c>
       <c r="AJ31" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AK31" t="s">
         <v>1670</v>
       </c>
-      <c r="AK31" t="s">
-        <v>1673</v>
-      </c>
       <c r="AL31" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM31" t="s">
         <v>1307</v>
@@ -8952,7 +8952,7 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="D32" t="s">
         <v>360</v>
@@ -9003,7 +9003,7 @@
         <v>1239</v>
       </c>
       <c r="AK32" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL32" t="s">
         <v>1283</v>
@@ -9020,7 +9020,7 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D33" t="s">
         <v>351</v>
@@ -9091,7 +9091,7 @@
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="D34" t="s">
         <v>361</v>
@@ -9139,7 +9139,7 @@
         <v>1605</v>
       </c>
       <c r="AJ34" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK34" t="s">
         <v>1266</v>
@@ -9162,7 +9162,7 @@
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D35" t="s">
         <v>362</v>
@@ -9233,7 +9233,7 @@
         <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="D36" t="s">
         <v>354</v>
@@ -9284,7 +9284,7 @@
         <v>1240</v>
       </c>
       <c r="AK36" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL36" t="s">
         <v>1283</v>
@@ -9301,7 +9301,7 @@
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D37" t="s">
         <v>352</v>
@@ -9364,7 +9364,7 @@
         <v>1332</v>
       </c>
       <c r="AN37" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.3">
@@ -9375,7 +9375,7 @@
         <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="D38" t="s">
         <v>363</v>
@@ -9446,7 +9446,7 @@
         <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D39" t="s">
         <v>354</v>
@@ -9517,7 +9517,7 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="D40" t="s">
         <v>354</v>
@@ -9594,7 +9594,7 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="D41" t="s">
         <v>364</v>
@@ -9642,7 +9642,7 @@
         <v>1605</v>
       </c>
       <c r="AJ41" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK41" t="s">
         <v>1266</v>
@@ -9662,7 +9662,7 @@
         <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D42" t="s">
         <v>351</v>
@@ -9719,7 +9719,7 @@
         <v>1606</v>
       </c>
       <c r="AJ42" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK42" t="s">
         <v>1266</v>
@@ -9739,7 +9739,7 @@
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="D43" t="s">
         <v>347</v>
@@ -9793,7 +9793,7 @@
         <v>1239</v>
       </c>
       <c r="AK43" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL43" t="s">
         <v>1283</v>
@@ -9810,7 +9810,7 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D44" t="s">
         <v>347</v>
@@ -9864,7 +9864,7 @@
         <v>1239</v>
       </c>
       <c r="AK44" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL44" t="s">
         <v>1283</v>
@@ -9896,7 +9896,7 @@
         <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="D45" t="s">
         <v>356</v>
@@ -9964,7 +9964,7 @@
         <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="D46" t="s">
         <v>365</v>
@@ -10018,7 +10018,7 @@
         <v>1266</v>
       </c>
       <c r="AL46" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM46" t="s">
         <v>1316</v>
@@ -10032,7 +10032,7 @@
         <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D47" t="s">
         <v>355</v>
@@ -10103,7 +10103,7 @@
         <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="D48" t="s">
         <v>354</v>
@@ -10174,7 +10174,7 @@
         <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="D49" t="s">
         <v>358</v>
@@ -10222,10 +10222,10 @@
         <v>1611</v>
       </c>
       <c r="AJ49" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK49" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL49" t="s">
         <v>1283</v>
@@ -10242,7 +10242,7 @@
         <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D50" t="s">
         <v>366</v>
@@ -10290,7 +10290,7 @@
         <v>1605</v>
       </c>
       <c r="AJ50" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK50" t="s">
         <v>1261</v>
@@ -10310,7 +10310,7 @@
         <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="D51" t="s">
         <v>354</v>
@@ -10378,7 +10378,7 @@
         <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="D52" t="s">
         <v>352</v>
@@ -10443,7 +10443,7 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="D53" t="s">
         <v>354</v>
@@ -10503,7 +10503,7 @@
         <v>1240</v>
       </c>
       <c r="AK53" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL53" t="s">
         <v>1283</v>
@@ -10520,7 +10520,7 @@
         <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="D54" t="s">
         <v>354</v>
@@ -10594,7 +10594,7 @@
         <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D55" t="s">
         <v>354</v>
@@ -10662,7 +10662,7 @@
         <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D56" t="s">
         <v>355</v>
@@ -10736,7 +10736,7 @@
         <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="D57" t="s">
         <v>367</v>
@@ -10804,7 +10804,7 @@
         <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="D58" t="s">
         <v>348</v>
@@ -10872,7 +10872,7 @@
         <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="D59" t="s">
         <v>368</v>
@@ -10926,7 +10926,7 @@
         <v>1239</v>
       </c>
       <c r="AK59" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL59" t="s">
         <v>1283</v>
@@ -10938,10 +10938,10 @@
         <v>1310</v>
       </c>
       <c r="AO59" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="AP59" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.3">
@@ -10952,7 +10952,7 @@
         <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="D60" t="s">
         <v>353</v>
@@ -11020,7 +11020,7 @@
         <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="D61" t="s">
         <v>349</v>
@@ -11094,7 +11094,7 @@
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D62" t="s">
         <v>347</v>
@@ -11148,7 +11148,7 @@
         <v>1239</v>
       </c>
       <c r="AK62" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL62" t="s">
         <v>1283</v>
@@ -11168,7 +11168,7 @@
         <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="D63" t="s">
         <v>362</v>
@@ -11248,7 +11248,7 @@
         <v>103</v>
       </c>
       <c r="C64" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="D64" t="s">
         <v>369</v>
@@ -11296,10 +11296,10 @@
         <v>1605</v>
       </c>
       <c r="AJ64" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK64" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="AL64" t="s">
         <v>1283</v>
@@ -11316,7 +11316,7 @@
         <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="D65" t="s">
         <v>370</v>
@@ -11373,7 +11373,7 @@
         <v>1266</v>
       </c>
       <c r="AL65" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM65" t="s">
         <v>1328</v>
@@ -11387,7 +11387,7 @@
         <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D66" t="s">
         <v>348</v>
@@ -11435,10 +11435,10 @@
         <v>1605</v>
       </c>
       <c r="AJ66" t="s">
-        <v>1671</v>
+        <v>2076</v>
       </c>
       <c r="AK66" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL66" t="s">
         <v>1284</v>
@@ -11450,13 +11450,13 @@
         <v>1295</v>
       </c>
       <c r="AO66" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="AP66" t="s">
         <v>1324</v>
       </c>
       <c r="AQ66" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.3">
@@ -11467,7 +11467,7 @@
         <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="D67" t="s">
         <v>353</v>
@@ -11518,7 +11518,7 @@
         <v>1239</v>
       </c>
       <c r="AK67" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL67" t="s">
         <v>1283</v>
@@ -11535,7 +11535,7 @@
         <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="D68" t="s">
         <v>351</v>
@@ -11583,10 +11583,10 @@
         <v>1605</v>
       </c>
       <c r="AJ68" t="s">
-        <v>1671</v>
+        <v>2076</v>
       </c>
       <c r="AK68" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL68" t="s">
         <v>1283</v>
@@ -11603,7 +11603,7 @@
         <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="D69" t="s">
         <v>355</v>
@@ -11657,10 +11657,10 @@
         <v>1239</v>
       </c>
       <c r="AK69" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL69" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM69" t="s">
         <v>1295</v>
@@ -11674,7 +11674,7 @@
         <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="D70" t="s">
         <v>355</v>
@@ -11742,7 +11742,7 @@
         <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="D71" t="s">
         <v>371</v>
@@ -11796,7 +11796,7 @@
         <v>1261</v>
       </c>
       <c r="AL71" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM71" t="s">
         <v>1331</v>
@@ -11810,7 +11810,7 @@
         <v>111</v>
       </c>
       <c r="C72" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="D72" t="s">
         <v>372</v>
@@ -11864,7 +11864,7 @@
         <v>1266</v>
       </c>
       <c r="AL72" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM72" t="s">
         <v>1332</v>
@@ -11878,7 +11878,7 @@
         <v>112</v>
       </c>
       <c r="C73" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="D73" t="s">
         <v>353</v>
@@ -11949,7 +11949,7 @@
         <v>113</v>
       </c>
       <c r="C74" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="D74" t="s">
         <v>362</v>
@@ -12012,7 +12012,7 @@
         <v>1266</v>
       </c>
       <c r="AL74" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM74" t="s">
         <v>1296</v>
@@ -12026,7 +12026,7 @@
         <v>114</v>
       </c>
       <c r="C75" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="D75" t="s">
         <v>353</v>
@@ -12100,7 +12100,7 @@
         <v>115</v>
       </c>
       <c r="C76" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="D76" t="s">
         <v>354</v>
@@ -12168,7 +12168,7 @@
         <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="D77" t="s">
         <v>350</v>
@@ -12219,10 +12219,10 @@
         <v>1239</v>
       </c>
       <c r="AK77" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL77" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM77" t="s">
         <v>1333</v>
@@ -12236,7 +12236,7 @@
         <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="D78" t="s">
         <v>373</v>
@@ -12304,7 +12304,7 @@
         <v>118</v>
       </c>
       <c r="C79" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="D79" t="s">
         <v>353</v>
@@ -12372,7 +12372,7 @@
         <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="D80" t="s">
         <v>355</v>
@@ -12449,7 +12449,7 @@
         <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="D81" t="s">
         <v>348</v>
@@ -12517,7 +12517,7 @@
         <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="D82" t="s">
         <v>355</v>
@@ -12571,7 +12571,7 @@
         <v>1239</v>
       </c>
       <c r="AK82" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL82" t="s">
         <v>1283</v>
@@ -12588,7 +12588,7 @@
         <v>93</v>
       </c>
       <c r="C83" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="D83" t="s">
         <v>366</v>
@@ -12659,7 +12659,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D84" t="s">
         <v>351</v>
@@ -12743,7 +12743,7 @@
         <v>1239</v>
       </c>
       <c r="AK84" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL84" t="s">
         <v>1284</v>
@@ -12763,7 +12763,7 @@
         <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="D85" t="s">
         <v>355</v>
@@ -12814,7 +12814,7 @@
         <v>1239</v>
       </c>
       <c r="AK85" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL85" t="s">
         <v>1283</v>
@@ -12831,7 +12831,7 @@
         <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="D86" t="s">
         <v>352</v>
@@ -12899,7 +12899,7 @@
         <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="D87" t="s">
         <v>373</v>
@@ -12970,7 +12970,7 @@
         <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="D88" t="s">
         <v>352</v>
@@ -13038,7 +13038,7 @@
         <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="D89" t="s">
         <v>351</v>
@@ -13106,7 +13106,7 @@
         <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -13163,7 +13163,7 @@
         <v>1266</v>
       </c>
       <c r="AL90" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM90" t="s">
         <v>1295</v>
@@ -13177,7 +13177,7 @@
         <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="D91" t="s">
         <v>374</v>
@@ -13251,7 +13251,7 @@
         <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="D92" t="s">
         <v>356</v>
@@ -13299,7 +13299,7 @@
         <v>1469</v>
       </c>
       <c r="AJ92" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK92" t="s">
         <v>1266</v>
@@ -13319,7 +13319,7 @@
         <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="D93" t="s">
         <v>367</v>
@@ -13387,7 +13387,7 @@
         <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="D94" t="s">
         <v>370</v>
@@ -13441,7 +13441,7 @@
         <v>1604</v>
       </c>
       <c r="AJ94" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK94" t="s">
         <v>1266</v>
@@ -13467,7 +13467,7 @@
         <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="D95" t="s">
         <v>354</v>
@@ -13535,7 +13535,7 @@
         <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="D96" t="s">
         <v>356</v>
@@ -13603,7 +13603,7 @@
         <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="D97" t="s">
         <v>353</v>
@@ -13671,7 +13671,7 @@
         <v>135</v>
       </c>
       <c r="C98" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="D98" t="s">
         <v>375</v>
@@ -13736,7 +13736,7 @@
         <v>136</v>
       </c>
       <c r="C99" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="D99" t="s">
         <v>354</v>
@@ -13787,7 +13787,7 @@
         <v>1239</v>
       </c>
       <c r="AK99" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL99" t="s">
         <v>1283</v>
@@ -13804,7 +13804,7 @@
         <v>137</v>
       </c>
       <c r="C100" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="D100" t="s">
         <v>354</v>
@@ -13878,7 +13878,7 @@
         <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="D101" t="s">
         <v>363</v>
@@ -13941,7 +13941,7 @@
         <v>1266</v>
       </c>
       <c r="AL101" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM101" t="s">
         <v>1343</v>
@@ -13955,7 +13955,7 @@
         <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="D102" t="s">
         <v>356</v>
@@ -14023,7 +14023,7 @@
         <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="D103" t="s">
         <v>351</v>
@@ -14074,7 +14074,7 @@
         <v>1239</v>
       </c>
       <c r="AK103" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL103" t="s">
         <v>1283</v>
@@ -14091,7 +14091,7 @@
         <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="D104" t="s">
         <v>351</v>
@@ -14139,7 +14139,7 @@
         <v>1239</v>
       </c>
       <c r="AK104" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL104" t="s">
         <v>1283</v>
@@ -14156,7 +14156,7 @@
         <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="D105" t="s">
         <v>376</v>
@@ -14207,7 +14207,7 @@
         <v>1239</v>
       </c>
       <c r="AK105" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL105" t="s">
         <v>1283</v>
@@ -14227,7 +14227,7 @@
         <v>142</v>
       </c>
       <c r="C106" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="D106" t="s">
         <v>353</v>
@@ -14278,7 +14278,7 @@
         <v>1239</v>
       </c>
       <c r="AK106" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL106" t="s">
         <v>1283</v>
@@ -14295,7 +14295,7 @@
         <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="D107" t="s">
         <v>374</v>
@@ -14340,7 +14340,7 @@
         <v>1240</v>
       </c>
       <c r="AK107" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL107" t="s">
         <v>1283</v>
@@ -14349,10 +14349,10 @@
         <v>1339</v>
       </c>
       <c r="AN107" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="AO107" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.3">
@@ -14363,7 +14363,7 @@
         <v>144</v>
       </c>
       <c r="C108" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="D108" t="s">
         <v>351</v>
@@ -14434,7 +14434,7 @@
         <v>138</v>
       </c>
       <c r="C109" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="D109" t="s">
         <v>377</v>
@@ -14488,7 +14488,7 @@
         <v>1266</v>
       </c>
       <c r="AL109" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM109" t="s">
         <v>1319</v>
@@ -14502,7 +14502,7 @@
         <v>145</v>
       </c>
       <c r="C110" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="D110" t="s">
         <v>367</v>
@@ -14556,7 +14556,7 @@
         <v>1239</v>
       </c>
       <c r="AK110" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL110" t="s">
         <v>1283</v>
@@ -14573,7 +14573,7 @@
         <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="D111" t="s">
         <v>357</v>
@@ -14641,7 +14641,7 @@
         <v>147</v>
       </c>
       <c r="C112" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="D112" t="s">
         <v>348</v>
@@ -14692,7 +14692,7 @@
         <v>1469</v>
       </c>
       <c r="AJ112" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK112" t="s">
         <v>1266</v>
@@ -14712,7 +14712,7 @@
         <v>148</v>
       </c>
       <c r="C113" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="D113" t="s">
         <v>353</v>
@@ -14777,7 +14777,7 @@
         <v>139</v>
       </c>
       <c r="C114" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="D114" t="s">
         <v>356</v>
@@ -14848,7 +14848,7 @@
         <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="D115" t="s">
         <v>351</v>
@@ -14896,7 +14896,7 @@
         <v>1269</v>
       </c>
       <c r="AL115" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM115" t="s">
         <v>1349</v>
@@ -14910,7 +14910,7 @@
         <v>150</v>
       </c>
       <c r="C116" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="D116" t="s">
         <v>351</v>
@@ -14964,7 +14964,7 @@
         <v>1261</v>
       </c>
       <c r="AL116" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM116" t="s">
         <v>1350</v>
@@ -14978,7 +14978,7 @@
         <v>151</v>
       </c>
       <c r="C117" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="D117" t="s">
         <v>378</v>
@@ -15026,7 +15026,7 @@
         <v>1605</v>
       </c>
       <c r="AJ117" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK117" t="s">
         <v>1269</v>
@@ -15046,7 +15046,7 @@
         <v>152</v>
       </c>
       <c r="C118" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="D118" t="s">
         <v>356</v>
@@ -15100,7 +15100,7 @@
         <v>1266</v>
       </c>
       <c r="AL118" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM118" t="s">
         <v>1352</v>
@@ -15114,7 +15114,7 @@
         <v>153</v>
       </c>
       <c r="C119" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="D119" t="s">
         <v>350</v>
@@ -15171,7 +15171,7 @@
         <v>1240</v>
       </c>
       <c r="AK119" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL119" t="s">
         <v>1283</v>
@@ -15188,7 +15188,7 @@
         <v>154</v>
       </c>
       <c r="C120" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="D120" t="s">
         <v>371</v>
@@ -15242,7 +15242,7 @@
         <v>1261</v>
       </c>
       <c r="AL120" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM120" t="s">
         <v>1354</v>
@@ -15256,7 +15256,7 @@
         <v>155</v>
       </c>
       <c r="C121" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="D121" t="s">
         <v>348</v>
@@ -15327,7 +15327,7 @@
         <v>156</v>
       </c>
       <c r="C122" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="D122" t="s">
         <v>354</v>
@@ -15404,7 +15404,7 @@
         <v>157</v>
       </c>
       <c r="C123" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="D123" t="s">
         <v>351</v>
@@ -15472,7 +15472,7 @@
         <v>158</v>
       </c>
       <c r="C124" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="D124" t="s">
         <v>350</v>
@@ -15532,10 +15532,10 @@
         <v>1508</v>
       </c>
       <c r="AJ124" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AK124" t="s">
         <v>1670</v>
-      </c>
-      <c r="AK124" t="s">
-        <v>1673</v>
       </c>
       <c r="AL124" t="s">
         <v>1283</v>
@@ -15552,7 +15552,7 @@
         <v>159</v>
       </c>
       <c r="C125" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D125" t="s">
         <v>354</v>
@@ -15620,7 +15620,7 @@
         <v>160</v>
       </c>
       <c r="C126" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="D126" t="s">
         <v>354</v>
@@ -15691,7 +15691,7 @@
         <v>161</v>
       </c>
       <c r="C127" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="D127" t="s">
         <v>379</v>
@@ -15759,7 +15759,7 @@
         <v>162</v>
       </c>
       <c r="C128" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="D128" t="s">
         <v>378</v>
@@ -15824,7 +15824,7 @@
         <v>163</v>
       </c>
       <c r="C129" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D129" t="s">
         <v>355</v>
@@ -15878,7 +15878,7 @@
         <v>1266</v>
       </c>
       <c r="AL129" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM129" t="s">
         <v>1295</v>
@@ -15892,7 +15892,7 @@
         <v>164</v>
       </c>
       <c r="C130" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="D130" t="s">
         <v>370</v>
@@ -15943,13 +15943,13 @@
         <v>1239</v>
       </c>
       <c r="AK130" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL130" t="s">
         <v>1283</v>
       </c>
       <c r="AM130" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="AN130" t="s">
         <v>1336</v>
@@ -15966,7 +15966,7 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="D131" t="s">
         <v>353</v>
@@ -16034,7 +16034,7 @@
         <v>165</v>
       </c>
       <c r="C132" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="D132" t="s">
         <v>380</v>
@@ -16094,7 +16094,7 @@
         <v>1266</v>
       </c>
       <c r="AL132" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM132" t="s">
         <v>1332</v>
@@ -16108,7 +16108,7 @@
         <v>165</v>
       </c>
       <c r="C133" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="D133" t="s">
         <v>380</v>
@@ -16168,7 +16168,7 @@
         <v>1266</v>
       </c>
       <c r="AL133" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM133" t="s">
         <v>1332</v>
@@ -16182,7 +16182,7 @@
         <v>166</v>
       </c>
       <c r="C134" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="D134" t="s">
         <v>353</v>
@@ -16253,7 +16253,7 @@
         <v>160</v>
       </c>
       <c r="C135" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="D135" t="s">
         <v>354</v>
@@ -16304,7 +16304,7 @@
         <v>1438</v>
       </c>
       <c r="AJ135" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK135" t="s">
         <v>1261</v>
@@ -16324,7 +16324,7 @@
         <v>156</v>
       </c>
       <c r="C136" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="D136" t="s">
         <v>354</v>
@@ -16401,7 +16401,7 @@
         <v>167</v>
       </c>
       <c r="C137" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="D137" t="s">
         <v>378</v>
@@ -16469,7 +16469,7 @@
         <v>168</v>
       </c>
       <c r="C138" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D138" t="s">
         <v>354</v>
@@ -16529,7 +16529,7 @@
         <v>1239</v>
       </c>
       <c r="AK138" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL138" t="s">
         <v>1283</v>
@@ -16546,7 +16546,7 @@
         <v>169</v>
       </c>
       <c r="C139" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="D139" t="s">
         <v>354</v>
@@ -16597,7 +16597,7 @@
         <v>1240</v>
       </c>
       <c r="AK139" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL139" t="s">
         <v>1283</v>
@@ -16623,7 +16623,7 @@
         <v>170</v>
       </c>
       <c r="C140" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="D140" t="s">
         <v>361</v>
@@ -16691,7 +16691,7 @@
         <v>171</v>
       </c>
       <c r="C141" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="D141" t="s">
         <v>355</v>
@@ -16742,7 +16742,7 @@
         <v>1239</v>
       </c>
       <c r="AK141" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL141" t="s">
         <v>1283</v>
@@ -16751,7 +16751,7 @@
         <v>1341</v>
       </c>
       <c r="AN141" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.3">
@@ -16762,7 +16762,7 @@
         <v>172</v>
       </c>
       <c r="C142" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="D142" t="s">
         <v>354</v>
@@ -16819,7 +16819,7 @@
         <v>1239</v>
       </c>
       <c r="AK142" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL142" t="s">
         <v>1283</v>
@@ -16839,7 +16839,7 @@
         <v>160</v>
       </c>
       <c r="C143" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="D143" t="s">
         <v>354</v>
@@ -16890,7 +16890,7 @@
         <v>1240</v>
       </c>
       <c r="AK143" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL143" t="s">
         <v>1283</v>
@@ -16907,7 +16907,7 @@
         <v>173</v>
       </c>
       <c r="C144" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D144" t="s">
         <v>370</v>
@@ -17003,22 +17003,22 @@
         <v>1239</v>
       </c>
       <c r="AK144" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL144" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM144" t="s">
         <v>1332</v>
       </c>
       <c r="AN144" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="AO144" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="AP144" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="145" spans="1:40" x14ac:dyDescent="0.3">
@@ -17029,7 +17029,7 @@
         <v>174</v>
       </c>
       <c r="C145" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="D145" t="s">
         <v>362</v>
@@ -17080,7 +17080,7 @@
         <v>1239</v>
       </c>
       <c r="AK145" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL145" t="s">
         <v>1283</v>
@@ -17097,7 +17097,7 @@
         <v>175</v>
       </c>
       <c r="C146" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="D146" t="s">
         <v>350</v>
@@ -17148,10 +17148,10 @@
         <v>1239</v>
       </c>
       <c r="AK146" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL146" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM146" t="s">
         <v>1295</v>
@@ -17165,7 +17165,7 @@
         <v>176</v>
       </c>
       <c r="C147" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D147" t="s">
         <v>354</v>
@@ -17233,7 +17233,7 @@
         <v>177</v>
       </c>
       <c r="C148" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="D148" t="s">
         <v>381</v>
@@ -17307,7 +17307,7 @@
         <v>178</v>
       </c>
       <c r="C149" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="D149" t="s">
         <v>351</v>
@@ -17372,7 +17372,7 @@
         <v>179</v>
       </c>
       <c r="C150" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="D150" t="s">
         <v>371</v>
@@ -17446,7 +17446,7 @@
         <v>180</v>
       </c>
       <c r="C151" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="D151" t="s">
         <v>349</v>
@@ -17514,7 +17514,7 @@
         <v>181</v>
       </c>
       <c r="C152" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D152" t="s">
         <v>351</v>
@@ -17565,7 +17565,7 @@
         <v>1240</v>
       </c>
       <c r="AK152" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL152" t="s">
         <v>1283</v>
@@ -17582,7 +17582,7 @@
         <v>182</v>
       </c>
       <c r="C153" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="D153" t="s">
         <v>373</v>
@@ -17650,7 +17650,7 @@
         <v>183</v>
       </c>
       <c r="C154" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="D154" t="s">
         <v>382</v>
@@ -17721,7 +17721,7 @@
         <v>184</v>
       </c>
       <c r="C155" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="D155" t="s">
         <v>354</v>
@@ -17795,7 +17795,7 @@
         <v>185</v>
       </c>
       <c r="C156" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="D156" t="s">
         <v>355</v>
@@ -17846,10 +17846,10 @@
         <v>1240</v>
       </c>
       <c r="AK156" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL156" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM156" t="s">
         <v>1305</v>
@@ -17863,7 +17863,7 @@
         <v>186</v>
       </c>
       <c r="C157" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="D157" t="s">
         <v>355</v>
@@ -17937,7 +17937,7 @@
         <v>187</v>
       </c>
       <c r="C158" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="D158" t="s">
         <v>356</v>
@@ -17991,7 +17991,7 @@
         <v>1648</v>
       </c>
       <c r="AJ158" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK158" t="s">
         <v>1273</v>
@@ -18011,7 +18011,7 @@
         <v>188</v>
       </c>
       <c r="C159" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="D159" t="s">
         <v>353</v>
@@ -18056,7 +18056,7 @@
         <v>1239</v>
       </c>
       <c r="AK159" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL159" t="s">
         <v>1283</v>
@@ -18073,7 +18073,7 @@
         <v>189</v>
       </c>
       <c r="C160" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="D160" t="s">
         <v>356</v>
@@ -18144,7 +18144,7 @@
         <v>190</v>
       </c>
       <c r="C161" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="D161" t="s">
         <v>362</v>
@@ -18221,7 +18221,7 @@
         <v>191</v>
       </c>
       <c r="C162" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="D162" t="s">
         <v>371</v>
@@ -18272,7 +18272,7 @@
         <v>1239</v>
       </c>
       <c r="AK162" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL162" t="s">
         <v>1283</v>
@@ -18292,7 +18292,7 @@
         <v>192</v>
       </c>
       <c r="C163" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="D163" t="s">
         <v>354</v>
@@ -18346,7 +18346,7 @@
         <v>1239</v>
       </c>
       <c r="AK163" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL163" t="s">
         <v>1283</v>
@@ -18366,7 +18366,7 @@
         <v>193</v>
       </c>
       <c r="C164" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="D164" t="s">
         <v>354</v>
@@ -18434,7 +18434,7 @@
         <v>194</v>
       </c>
       <c r="C165" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="D165" t="s">
         <v>356</v>
@@ -18502,7 +18502,7 @@
         <v>195</v>
       </c>
       <c r="C166" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="D166" t="s">
         <v>363</v>
@@ -18564,7 +18564,7 @@
         <v>196</v>
       </c>
       <c r="C167" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="D167" t="s">
         <v>353</v>
@@ -18615,7 +18615,7 @@
         <v>1239</v>
       </c>
       <c r="AK167" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL167" t="s">
         <v>1283</v>
@@ -18632,7 +18632,7 @@
         <v>197</v>
       </c>
       <c r="C168" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D168" t="s">
         <v>354</v>
@@ -18700,7 +18700,7 @@
         <v>193</v>
       </c>
       <c r="C169" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="D169" t="s">
         <v>354</v>
@@ -18768,7 +18768,7 @@
         <v>193</v>
       </c>
       <c r="C170" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="D170" t="s">
         <v>354</v>
@@ -18830,7 +18830,7 @@
         <v>189</v>
       </c>
       <c r="C171" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="D171" t="s">
         <v>356</v>
@@ -18901,7 +18901,7 @@
         <v>198</v>
       </c>
       <c r="C172" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="D172" t="s">
         <v>356</v>
@@ -18955,7 +18955,7 @@
         <v>1266</v>
       </c>
       <c r="AL172" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM172" t="s">
         <v>1296</v>
@@ -18969,7 +18969,7 @@
         <v>199</v>
       </c>
       <c r="C173" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="D173" t="s">
         <v>374</v>
@@ -19014,7 +19014,7 @@
         <v>1239</v>
       </c>
       <c r="AK173" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="AL173" t="s">
         <v>1283</v>
@@ -19031,7 +19031,7 @@
         <v>200</v>
       </c>
       <c r="C174" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="D174" t="s">
         <v>383</v>
@@ -19091,7 +19091,7 @@
         <v>1293</v>
       </c>
       <c r="AN174" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="AO174" t="s">
         <v>1295</v>
@@ -19105,7 +19105,7 @@
         <v>201</v>
       </c>
       <c r="C175" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="D175" t="s">
         <v>375</v>
@@ -19170,7 +19170,7 @@
         <v>202</v>
       </c>
       <c r="C176" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="D176" t="s">
         <v>347</v>
@@ -19221,7 +19221,7 @@
         <v>1240</v>
       </c>
       <c r="AK176" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL176" t="s">
         <v>1283</v>
@@ -19241,7 +19241,7 @@
         <v>203</v>
       </c>
       <c r="C177" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="D177" t="s">
         <v>384</v>
@@ -19336,7 +19336,7 @@
         <v>204</v>
       </c>
       <c r="C178" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="D178" t="s">
         <v>354</v>
@@ -19404,7 +19404,7 @@
         <v>205</v>
       </c>
       <c r="C179" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D179" t="s">
         <v>351</v>
@@ -19466,7 +19466,7 @@
         <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="D180" t="s">
         <v>354</v>
@@ -19537,7 +19537,7 @@
         <v>207</v>
       </c>
       <c r="C181" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="D181" t="s">
         <v>358</v>
@@ -19605,7 +19605,7 @@
         <v>208</v>
       </c>
       <c r="C182" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="D182" t="s">
         <v>371</v>
@@ -19653,7 +19653,7 @@
         <v>1261</v>
       </c>
       <c r="AL182" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM182" t="s">
         <v>1354</v>
@@ -19667,7 +19667,7 @@
         <v>209</v>
       </c>
       <c r="C183" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="D183" t="s">
         <v>352</v>
@@ -19730,7 +19730,7 @@
         <v>1283</v>
       </c>
       <c r="AM183" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="AN183" t="s">
         <v>1296</v>
@@ -19747,7 +19747,7 @@
         <v>210</v>
       </c>
       <c r="C184" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="D184" t="s">
         <v>353</v>
@@ -19815,7 +19815,7 @@
         <v>211</v>
       </c>
       <c r="C185" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="D185" t="s">
         <v>353</v>
@@ -19860,7 +19860,7 @@
         <v>1239</v>
       </c>
       <c r="AK185" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="AL185" t="s">
         <v>1283</v>
@@ -19877,7 +19877,7 @@
         <v>212</v>
       </c>
       <c r="C186" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="D186" t="s">
         <v>354</v>
@@ -19931,7 +19931,7 @@
         <v>1266</v>
       </c>
       <c r="AL186" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM186" t="s">
         <v>1382</v>
@@ -19945,7 +19945,7 @@
         <v>213</v>
       </c>
       <c r="C187" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="D187" t="s">
         <v>353</v>
@@ -20016,7 +20016,7 @@
         <v>214</v>
       </c>
       <c r="C188" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="D188" t="s">
         <v>354</v>
@@ -20070,7 +20070,7 @@
         <v>1266</v>
       </c>
       <c r="AL188" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM188" t="s">
         <v>1290</v>
@@ -20084,7 +20084,7 @@
         <v>215</v>
       </c>
       <c r="C189" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="D189" t="s">
         <v>362</v>
@@ -20132,7 +20132,7 @@
         <v>1261</v>
       </c>
       <c r="AL189" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM189" t="s">
         <v>1296</v>
@@ -20146,7 +20146,7 @@
         <v>216</v>
       </c>
       <c r="C190" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="D190" t="s">
         <v>385</v>
@@ -20200,7 +20200,7 @@
         <v>1266</v>
       </c>
       <c r="AL190" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM190" t="s">
         <v>1289</v>
@@ -20214,7 +20214,7 @@
         <v>217</v>
       </c>
       <c r="C191" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="D191" t="s">
         <v>355</v>
@@ -20274,7 +20274,7 @@
         <v>1266</v>
       </c>
       <c r="AL191" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM191" t="s">
         <v>1290</v>
@@ -20288,7 +20288,7 @@
         <v>218</v>
       </c>
       <c r="C192" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="D192" t="s">
         <v>351</v>
@@ -20353,7 +20353,7 @@
         <v>219</v>
       </c>
       <c r="C193" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="D193" t="s">
         <v>355</v>
@@ -20424,7 +20424,7 @@
         <v>220</v>
       </c>
       <c r="C194" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="D194" t="s">
         <v>382</v>
@@ -20495,7 +20495,7 @@
         <v>221</v>
       </c>
       <c r="C195" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="D195" t="s">
         <v>363</v>
@@ -20549,16 +20549,16 @@
         <v>1239</v>
       </c>
       <c r="AK195" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL195" t="s">
         <v>1283</v>
       </c>
       <c r="AM195" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="AN195" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="196" spans="1:40" x14ac:dyDescent="0.3">
@@ -20569,7 +20569,7 @@
         <v>222</v>
       </c>
       <c r="C196" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="D196" t="s">
         <v>386</v>
@@ -20634,7 +20634,7 @@
         <v>223</v>
       </c>
       <c r="C197" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="D197" t="s">
         <v>355</v>
@@ -20702,7 +20702,7 @@
         <v>224</v>
       </c>
       <c r="C198" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="D198" t="s">
         <v>380</v>
@@ -20773,7 +20773,7 @@
         <v>225</v>
       </c>
       <c r="C199" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="D199" t="s">
         <v>356</v>
@@ -20824,7 +20824,7 @@
         <v>1239</v>
       </c>
       <c r="AK199" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL199" t="s">
         <v>1283</v>
@@ -20841,7 +20841,7 @@
         <v>226</v>
       </c>
       <c r="C200" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="D200" t="s">
         <v>355</v>
@@ -20880,7 +20880,7 @@
         <v>1508</v>
       </c>
       <c r="AJ200" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AL200" t="s">
         <v>1284</v>
@@ -20894,7 +20894,7 @@
         <v>227</v>
       </c>
       <c r="C201" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="D201" t="s">
         <v>355</v>
@@ -20945,10 +20945,10 @@
         <v>1239</v>
       </c>
       <c r="AK201" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL201" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM201" t="s">
         <v>1323</v>
@@ -20962,7 +20962,7 @@
         <v>228</v>
       </c>
       <c r="C202" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="D202" t="s">
         <v>354</v>
@@ -21033,7 +21033,7 @@
         <v>229</v>
       </c>
       <c r="C203" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="D203" t="s">
         <v>352</v>
@@ -21110,7 +21110,7 @@
         <v>230</v>
       </c>
       <c r="C204" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="D204" t="s">
         <v>354</v>
@@ -21178,7 +21178,7 @@
         <v>231</v>
       </c>
       <c r="C205" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="D205" t="s">
         <v>374</v>
@@ -21235,7 +21235,7 @@
         <v>1261</v>
       </c>
       <c r="AL205" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM205" t="s">
         <v>1339</v>
@@ -21249,7 +21249,7 @@
         <v>232</v>
       </c>
       <c r="C206" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="D206" t="s">
         <v>356</v>
@@ -21320,7 +21320,7 @@
         <v>233</v>
       </c>
       <c r="C207" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="D207" t="s">
         <v>348</v>
@@ -21385,7 +21385,7 @@
         <v>234</v>
       </c>
       <c r="C208" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="D208" t="s">
         <v>374</v>
@@ -21450,7 +21450,7 @@
         <v>235</v>
       </c>
       <c r="C209" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="D209" t="s">
         <v>370</v>
@@ -21501,7 +21501,7 @@
         <v>1240</v>
       </c>
       <c r="AK209" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL209" t="s">
         <v>1283</v>
@@ -21518,7 +21518,7 @@
         <v>236</v>
       </c>
       <c r="C210" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D210" t="s">
         <v>358</v>
@@ -21580,7 +21580,7 @@
         <v>237</v>
       </c>
       <c r="C211" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D211" t="s">
         <v>351</v>
@@ -21642,7 +21642,7 @@
         <v>238</v>
       </c>
       <c r="C212" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="D212" t="s">
         <v>348</v>
@@ -21696,16 +21696,16 @@
         <v>1239</v>
       </c>
       <c r="AK212" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL212" t="s">
         <v>1283</v>
       </c>
       <c r="AM212" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="AN212" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="213" spans="1:41" x14ac:dyDescent="0.3">
@@ -21716,7 +21716,7 @@
         <v>239</v>
       </c>
       <c r="C213" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D213" t="s">
         <v>353</v>
@@ -21764,7 +21764,7 @@
         <v>1266</v>
       </c>
       <c r="AL213" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM213" t="s">
         <v>1389</v>
@@ -21778,7 +21778,7 @@
         <v>240</v>
       </c>
       <c r="C214" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="D214" t="s">
         <v>354</v>
@@ -21846,7 +21846,7 @@
         <v>238</v>
       </c>
       <c r="C215" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="D215" t="s">
         <v>348</v>
@@ -21903,13 +21903,13 @@
         <v>1283</v>
       </c>
       <c r="AM215" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="AN215" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="AO215" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="216" spans="1:41" x14ac:dyDescent="0.3">
@@ -21920,7 +21920,7 @@
         <v>241</v>
       </c>
       <c r="C216" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D216" t="s">
         <v>355</v>
@@ -21968,10 +21968,10 @@
         <v>1234</v>
       </c>
       <c r="AJ216" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AK216" t="s">
         <v>1670</v>
-      </c>
-      <c r="AK216" t="s">
-        <v>1673</v>
       </c>
       <c r="AL216" t="s">
         <v>1283</v>
@@ -21980,7 +21980,7 @@
         <v>1332</v>
       </c>
       <c r="AN216" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="217" spans="1:41" x14ac:dyDescent="0.3">
@@ -21991,7 +21991,7 @@
         <v>242</v>
       </c>
       <c r="C217" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="D217" t="s">
         <v>374</v>
@@ -22065,7 +22065,7 @@
         <v>243</v>
       </c>
       <c r="C218" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="D218" t="s">
         <v>354</v>
@@ -22133,7 +22133,7 @@
         <v>244</v>
       </c>
       <c r="C219" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="D219" t="s">
         <v>354</v>
@@ -22193,13 +22193,13 @@
         <v>1240</v>
       </c>
       <c r="AK219" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL219" t="s">
         <v>1283</v>
       </c>
       <c r="AM219" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="AN219" t="s">
         <v>1295</v>
@@ -22213,7 +22213,7 @@
         <v>245</v>
       </c>
       <c r="C220" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="D220" t="s">
         <v>379</v>
@@ -22270,10 +22270,10 @@
         <v>1283</v>
       </c>
       <c r="AM220" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="AN220" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="221" spans="1:41" x14ac:dyDescent="0.3">
@@ -22284,7 +22284,7 @@
         <v>246</v>
       </c>
       <c r="C221" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="D221" t="s">
         <v>353</v>
@@ -22352,7 +22352,7 @@
         <v>247</v>
       </c>
       <c r="C222" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="D222" t="s">
         <v>354</v>
@@ -22403,7 +22403,7 @@
         <v>1239</v>
       </c>
       <c r="AK222" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL222" t="s">
         <v>1283</v>
@@ -22420,7 +22420,7 @@
         <v>248</v>
       </c>
       <c r="C223" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="D223" t="s">
         <v>353</v>
@@ -22482,7 +22482,7 @@
         <v>249</v>
       </c>
       <c r="C224" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="D224" t="s">
         <v>350</v>
@@ -22556,7 +22556,7 @@
         <v>250</v>
       </c>
       <c r="C225" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="D225" t="s">
         <v>354</v>
@@ -22624,7 +22624,7 @@
         <v>251</v>
       </c>
       <c r="C226" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D226" t="s">
         <v>352</v>
@@ -22672,7 +22672,7 @@
         <v>1614</v>
       </c>
       <c r="AJ226" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK226" t="s">
         <v>1261</v>
@@ -22692,7 +22692,7 @@
         <v>252</v>
       </c>
       <c r="C227" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="D227" t="s">
         <v>354</v>
@@ -22769,7 +22769,7 @@
         <v>253</v>
       </c>
       <c r="C228" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="D228" t="s">
         <v>354</v>
@@ -22837,7 +22837,7 @@
         <v>254</v>
       </c>
       <c r="C229" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="D229" t="s">
         <v>355</v>
@@ -22885,7 +22885,7 @@
         <v>1239</v>
       </c>
       <c r="AK229" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL229" t="s">
         <v>1284</v>
@@ -22902,7 +22902,7 @@
         <v>255</v>
       </c>
       <c r="C230" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="D230" t="s">
         <v>354</v>
@@ -22956,7 +22956,7 @@
         <v>1240</v>
       </c>
       <c r="AK230" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL230" t="s">
         <v>1283</v>
@@ -22973,7 +22973,7 @@
         <v>256</v>
       </c>
       <c r="C231" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="D231" t="s">
         <v>374</v>
@@ -23041,7 +23041,7 @@
         <v>257</v>
       </c>
       <c r="C232" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="D232" t="s">
         <v>354</v>
@@ -23118,7 +23118,7 @@
         <v>258</v>
       </c>
       <c r="C233" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="D233" t="s">
         <v>354</v>
@@ -23186,7 +23186,7 @@
         <v>259</v>
       </c>
       <c r="C234" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="D234" t="s">
         <v>353</v>
@@ -23254,7 +23254,7 @@
         <v>260</v>
       </c>
       <c r="C235" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="D235" t="s">
         <v>362</v>
@@ -23316,7 +23316,7 @@
         <v>252</v>
       </c>
       <c r="C236" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="D236" t="s">
         <v>354</v>
@@ -23384,7 +23384,7 @@
         <v>261</v>
       </c>
       <c r="C237" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="D237" t="s">
         <v>354</v>
@@ -23458,7 +23458,7 @@
         <v>262</v>
       </c>
       <c r="C238" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="D238" t="s">
         <v>354</v>
@@ -23538,7 +23538,7 @@
         <v>263</v>
       </c>
       <c r="C239" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="D239" t="s">
         <v>354</v>
@@ -23609,7 +23609,7 @@
         <v>264</v>
       </c>
       <c r="C240" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="D240" t="s">
         <v>369</v>
@@ -23677,7 +23677,7 @@
         <v>265</v>
       </c>
       <c r="C241" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="D241" t="s">
         <v>387</v>
@@ -23728,25 +23728,25 @@
         <v>1240</v>
       </c>
       <c r="AK241" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL241" t="s">
         <v>1283</v>
       </c>
       <c r="AM241" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="AN241" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="AO241" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="AP241" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="AQ241" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="242" spans="1:43" x14ac:dyDescent="0.3">
@@ -23757,7 +23757,7 @@
         <v>266</v>
       </c>
       <c r="C242" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="D242" t="s">
         <v>374</v>
@@ -23825,7 +23825,7 @@
         <v>267</v>
       </c>
       <c r="C243" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="D243" t="s">
         <v>354</v>
@@ -23891,7 +23891,7 @@
         <v>1239</v>
       </c>
       <c r="AK243" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL243" t="s">
         <v>1283</v>
@@ -23908,7 +23908,7 @@
         <v>268</v>
       </c>
       <c r="C244" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="D244" t="s">
         <v>388</v>
@@ -23982,7 +23982,7 @@
         <v>269</v>
       </c>
       <c r="C245" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="D245" t="s">
         <v>354</v>
@@ -24053,7 +24053,7 @@
         <v>270</v>
       </c>
       <c r="C246" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="D246" t="s">
         <v>370</v>
@@ -24118,7 +24118,7 @@
         <v>271</v>
       </c>
       <c r="C247" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="D247" t="s">
         <v>354</v>
@@ -24166,10 +24166,10 @@
         <v>1469</v>
       </c>
       <c r="AJ247" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK247" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL247" t="s">
         <v>1284</v>
@@ -24186,7 +24186,7 @@
         <v>272</v>
       </c>
       <c r="C248" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="D248" t="s">
         <v>371</v>
@@ -24254,7 +24254,7 @@
         <v>273</v>
       </c>
       <c r="C249" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="D249" t="s">
         <v>355</v>
@@ -24299,7 +24299,7 @@
         <v>1604</v>
       </c>
       <c r="AJ249" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK249" t="s">
         <v>1261</v>
@@ -24319,7 +24319,7 @@
         <v>274</v>
       </c>
       <c r="C250" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="D250" t="s">
         <v>350</v>
@@ -24396,7 +24396,7 @@
         <v>275</v>
       </c>
       <c r="C251" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="D251" t="s">
         <v>355</v>
@@ -24467,7 +24467,7 @@
         <v>276</v>
       </c>
       <c r="C252" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="D252" t="s">
         <v>355</v>
@@ -24532,7 +24532,7 @@
         <v>277</v>
       </c>
       <c r="C253" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="D253" t="s">
         <v>354</v>
@@ -24600,7 +24600,7 @@
         <v>278</v>
       </c>
       <c r="C254" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="D254" t="s">
         <v>363</v>
@@ -24671,7 +24671,7 @@
         <v>269</v>
       </c>
       <c r="C255" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="D255" t="s">
         <v>354</v>
@@ -24728,7 +24728,7 @@
         <v>1469</v>
       </c>
       <c r="AJ255" t="s">
-        <v>1672</v>
+        <v>2077</v>
       </c>
       <c r="AK255" t="s">
         <v>1266</v>
@@ -24748,7 +24748,7 @@
         <v>269</v>
       </c>
       <c r="C256" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="D256" t="s">
         <v>354</v>
@@ -24802,7 +24802,7 @@
         <v>1239</v>
       </c>
       <c r="AK256" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL256" t="s">
         <v>1283</v>
@@ -24819,7 +24819,7 @@
         <v>279</v>
       </c>
       <c r="C257" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="D257" t="s">
         <v>368</v>
@@ -24873,7 +24873,7 @@
         <v>1239</v>
       </c>
       <c r="AK257" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL257" t="s">
         <v>1283</v>
@@ -24890,7 +24890,7 @@
         <v>280</v>
       </c>
       <c r="C258" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="D258" t="s">
         <v>384</v>
@@ -24947,13 +24947,13 @@
         <v>1283</v>
       </c>
       <c r="AM258" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="AN258" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="AO258" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="259" spans="1:41" x14ac:dyDescent="0.3">
@@ -24964,7 +24964,7 @@
         <v>281</v>
       </c>
       <c r="C259" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="D259" t="s">
         <v>354</v>
@@ -25018,7 +25018,7 @@
         <v>1240</v>
       </c>
       <c r="AK259" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL259" t="s">
         <v>1283</v>
@@ -25038,7 +25038,7 @@
         <v>282</v>
       </c>
       <c r="C260" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D260" t="s">
         <v>374</v>
@@ -25092,7 +25092,7 @@
         <v>1239</v>
       </c>
       <c r="AK260" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL260" t="s">
         <v>1283</v>
@@ -25109,7 +25109,7 @@
         <v>283</v>
       </c>
       <c r="C261" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="D261" t="s">
         <v>386</v>
@@ -25151,7 +25151,7 @@
         <v>1239</v>
       </c>
       <c r="AK261" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL261" t="s">
         <v>1283</v>
@@ -25168,7 +25168,7 @@
         <v>284</v>
       </c>
       <c r="C262" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D262" t="s">
         <v>360</v>
@@ -25239,7 +25239,7 @@
         <v>279</v>
       </c>
       <c r="C263" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D263" t="s">
         <v>368</v>
@@ -25290,7 +25290,7 @@
         <v>1239</v>
       </c>
       <c r="AK263" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL263" t="s">
         <v>1283</v>
@@ -25307,7 +25307,7 @@
         <v>285</v>
       </c>
       <c r="C264" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D264" t="s">
         <v>368</v>
@@ -25381,7 +25381,7 @@
         <v>286</v>
       </c>
       <c r="C265" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D265" t="s">
         <v>354</v>
@@ -25432,7 +25432,7 @@
         <v>1239</v>
       </c>
       <c r="AK265" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL265" t="s">
         <v>1283</v>
@@ -25449,7 +25449,7 @@
         <v>287</v>
       </c>
       <c r="C266" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="D266" t="s">
         <v>354</v>
@@ -25497,7 +25497,7 @@
         <v>1469</v>
       </c>
       <c r="AJ266" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK266" t="s">
         <v>1266</v>
@@ -25517,7 +25517,7 @@
         <v>288</v>
       </c>
       <c r="C267" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D267" t="s">
         <v>354</v>
@@ -25600,7 +25600,7 @@
         <v>289</v>
       </c>
       <c r="C268" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D268" t="s">
         <v>355</v>
@@ -25648,7 +25648,7 @@
         <v>1239</v>
       </c>
       <c r="AK268" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL268" t="s">
         <v>1283</v>
@@ -25665,7 +25665,7 @@
         <v>287</v>
       </c>
       <c r="C269" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="D269" t="s">
         <v>354</v>
@@ -25719,7 +25719,7 @@
         <v>1239</v>
       </c>
       <c r="AK269" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL269" t="s">
         <v>1283</v>
@@ -25739,7 +25739,7 @@
         <v>290</v>
       </c>
       <c r="C270" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D270" t="s">
         <v>354</v>
@@ -25784,7 +25784,7 @@
         <v>1239</v>
       </c>
       <c r="AK270" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL270" t="s">
         <v>1283</v>
@@ -25801,7 +25801,7 @@
         <v>291</v>
       </c>
       <c r="C271" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D271" t="s">
         <v>354</v>
@@ -25849,19 +25849,19 @@
         <v>1239</v>
       </c>
       <c r="AK271" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL271" t="s">
         <v>1283</v>
       </c>
       <c r="AM271" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="AN271" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="AO271" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="272" spans="1:41" x14ac:dyDescent="0.3">
@@ -25872,7 +25872,7 @@
         <v>292</v>
       </c>
       <c r="C272" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D272" t="s">
         <v>384</v>
@@ -25926,10 +25926,10 @@
         <v>1239</v>
       </c>
       <c r="AK272" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL272" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM272" t="s">
         <v>1291</v>
@@ -25943,7 +25943,7 @@
         <v>288</v>
       </c>
       <c r="C273" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D273" t="s">
         <v>354</v>
@@ -26023,7 +26023,7 @@
         <v>293</v>
       </c>
       <c r="C274" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D274" t="s">
         <v>350</v>
@@ -26088,7 +26088,7 @@
         <v>294</v>
       </c>
       <c r="C275" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D275" t="s">
         <v>368</v>
@@ -26159,7 +26159,7 @@
         <v>287</v>
       </c>
       <c r="C276" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="D276" t="s">
         <v>354</v>
@@ -26236,7 +26236,7 @@
         <v>295</v>
       </c>
       <c r="C277" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="D277" t="s">
         <v>354</v>
@@ -26281,7 +26281,7 @@
         <v>1240</v>
       </c>
       <c r="AK277" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL277" t="s">
         <v>1283</v>
@@ -26298,7 +26298,7 @@
         <v>296</v>
       </c>
       <c r="C278" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D278" t="s">
         <v>348</v>
@@ -26366,7 +26366,7 @@
         <v>297</v>
       </c>
       <c r="C279" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="D279" t="s">
         <v>354</v>
@@ -26417,7 +26417,7 @@
         <v>1469</v>
       </c>
       <c r="AJ279" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK279" t="s">
         <v>1266</v>
@@ -26437,7 +26437,7 @@
         <v>298</v>
       </c>
       <c r="C280" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="D280" t="s">
         <v>354</v>
@@ -26508,7 +26508,7 @@
         <v>299</v>
       </c>
       <c r="C281" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="D281" t="s">
         <v>354</v>
@@ -26579,7 +26579,7 @@
         <v>300</v>
       </c>
       <c r="C282" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="D282" t="s">
         <v>354</v>
@@ -26621,7 +26621,7 @@
         <v>1609</v>
       </c>
       <c r="AJ282" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK282" t="s">
         <v>1273</v>
@@ -26641,7 +26641,7 @@
         <v>301</v>
       </c>
       <c r="C283" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="D283" t="s">
         <v>362</v>
@@ -26689,10 +26689,10 @@
         <v>1619</v>
       </c>
       <c r="AJ283" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AK283" t="s">
         <v>1670</v>
-      </c>
-      <c r="AK283" t="s">
-        <v>1673</v>
       </c>
       <c r="AL283" t="s">
         <v>1283</v>
@@ -26709,7 +26709,7 @@
         <v>302</v>
       </c>
       <c r="C284" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="D284" t="s">
         <v>384</v>
@@ -26772,13 +26772,13 @@
         <v>1283</v>
       </c>
       <c r="AM284" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="AN284" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="AO284" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="285" spans="1:42" x14ac:dyDescent="0.3">
@@ -26789,7 +26789,7 @@
         <v>303</v>
       </c>
       <c r="C285" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="D285" t="s">
         <v>365</v>
@@ -26843,10 +26843,10 @@
         <v>1266</v>
       </c>
       <c r="AL285" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM285" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="AN285" t="s">
         <v>1291</v>
@@ -26855,7 +26855,7 @@
         <v>1289</v>
       </c>
       <c r="AP285" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="286" spans="1:42" x14ac:dyDescent="0.3">
@@ -26866,7 +26866,7 @@
         <v>304</v>
       </c>
       <c r="C286" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="D286" t="s">
         <v>384</v>
@@ -26934,7 +26934,7 @@
         <v>305</v>
       </c>
       <c r="C287" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="D287" t="s">
         <v>347</v>
@@ -26999,7 +26999,7 @@
         <v>306</v>
       </c>
       <c r="C288" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="D288" t="s">
         <v>354</v>
@@ -27074,7 +27074,7 @@
         <v>1239</v>
       </c>
       <c r="AK288" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL288" t="s">
         <v>1283</v>
@@ -27091,7 +27091,7 @@
         <v>307</v>
       </c>
       <c r="C289" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="D289" t="s">
         <v>354</v>
@@ -27145,7 +27145,7 @@
         <v>1239</v>
       </c>
       <c r="AK289" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL289" t="s">
         <v>1283</v>
@@ -27162,7 +27162,7 @@
         <v>308</v>
       </c>
       <c r="C290" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="D290" t="s">
         <v>354</v>
@@ -27210,7 +27210,7 @@
         <v>1469</v>
       </c>
       <c r="AJ290" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK290" t="s">
         <v>1266</v>
@@ -27230,7 +27230,7 @@
         <v>309</v>
       </c>
       <c r="C291" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="D291" t="s">
         <v>354</v>
@@ -27298,7 +27298,7 @@
         <v>310</v>
       </c>
       <c r="C292" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="D292" t="s">
         <v>355</v>
@@ -27346,7 +27346,7 @@
         <v>1609</v>
       </c>
       <c r="AJ292" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK292" t="s">
         <v>1273</v>
@@ -27366,7 +27366,7 @@
         <v>311</v>
       </c>
       <c r="C293" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="D293" t="s">
         <v>368</v>
@@ -27428,7 +27428,7 @@
         <v>312</v>
       </c>
       <c r="C294" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="D294" t="s">
         <v>368</v>
@@ -27470,7 +27470,7 @@
         <v>1617</v>
       </c>
       <c r="AJ294" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK294" t="s">
         <v>1266</v>
@@ -27490,7 +27490,7 @@
         <v>313</v>
       </c>
       <c r="C295" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="D295" t="s">
         <v>368</v>
@@ -27573,7 +27573,7 @@
         <v>314</v>
       </c>
       <c r="C296" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="D296" t="s">
         <v>354</v>
@@ -27615,10 +27615,10 @@
         <v>1609</v>
       </c>
       <c r="AJ296" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK296" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL296" t="s">
         <v>1284</v>
@@ -27627,7 +27627,7 @@
         <v>1296</v>
       </c>
       <c r="AN296" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="AO296" t="s">
         <v>1398</v>
@@ -27641,7 +27641,7 @@
         <v>315</v>
       </c>
       <c r="C297" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="D297" t="s">
         <v>354</v>
@@ -27715,7 +27715,7 @@
         <v>316</v>
       </c>
       <c r="C298" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D298" t="s">
         <v>354</v>
@@ -27772,10 +27772,10 @@
         <v>1239</v>
       </c>
       <c r="AK298" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL298" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM298" t="s">
         <v>1293</v>
@@ -27795,7 +27795,7 @@
         <v>317</v>
       </c>
       <c r="C299" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D299" t="s">
         <v>355</v>
@@ -27846,7 +27846,7 @@
         <v>1604</v>
       </c>
       <c r="AJ299" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK299" t="s">
         <v>1266</v>
@@ -27866,7 +27866,7 @@
         <v>318</v>
       </c>
       <c r="C300" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="D300" t="s">
         <v>355</v>
@@ -27923,7 +27923,7 @@
         <v>1266</v>
       </c>
       <c r="AL300" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM300" t="s">
         <v>1293</v>
@@ -27937,7 +27937,7 @@
         <v>319</v>
       </c>
       <c r="C301" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="D301" t="s">
         <v>354</v>
@@ -27988,7 +27988,7 @@
         <v>1239</v>
       </c>
       <c r="AK301" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL301" t="s">
         <v>1283</v>
@@ -28005,7 +28005,7 @@
         <v>320</v>
       </c>
       <c r="C302" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="D302" t="s">
         <v>355</v>
@@ -28056,7 +28056,7 @@
         <v>1239</v>
       </c>
       <c r="AK302" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL302" t="s">
         <v>1283</v>
@@ -28073,7 +28073,7 @@
         <v>321</v>
       </c>
       <c r="C303" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="D303" t="s">
         <v>373</v>
@@ -28150,7 +28150,7 @@
         <v>322</v>
       </c>
       <c r="C304" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="D304" t="s">
         <v>354</v>
@@ -28218,7 +28218,7 @@
         <v>323</v>
       </c>
       <c r="C305" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="D305" t="s">
         <v>350</v>
@@ -28295,7 +28295,7 @@
         <v>324</v>
       </c>
       <c r="C306" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="D306" t="s">
         <v>386</v>
@@ -28363,7 +28363,7 @@
         <v>325</v>
       </c>
       <c r="C307" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="D307" t="s">
         <v>366</v>
@@ -28440,7 +28440,7 @@
         <v>326</v>
       </c>
       <c r="C308" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="D308" t="s">
         <v>367</v>
@@ -28508,7 +28508,7 @@
         <v>327</v>
       </c>
       <c r="C309" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D309" t="s">
         <v>355</v>
@@ -28553,7 +28553,7 @@
         <v>1240</v>
       </c>
       <c r="AK309" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="AL309" t="s">
         <v>1283</v>
@@ -28570,7 +28570,7 @@
         <v>328</v>
       </c>
       <c r="C310" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="D310" t="s">
         <v>354</v>
@@ -28612,7 +28612,7 @@
         <v>1469</v>
       </c>
       <c r="AJ310" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK310" t="s">
         <v>1273</v>
@@ -28621,16 +28621,16 @@
         <v>1284</v>
       </c>
       <c r="AM310" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="AN310" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="AO310" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="AP310" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="311" spans="1:42" x14ac:dyDescent="0.3">
@@ -28641,7 +28641,7 @@
         <v>329</v>
       </c>
       <c r="C311" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D311" t="s">
         <v>354</v>
@@ -28701,7 +28701,7 @@
         <v>1240</v>
       </c>
       <c r="AK311" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL311" t="s">
         <v>1283</v>
@@ -28718,7 +28718,7 @@
         <v>330</v>
       </c>
       <c r="C312" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="D312" t="s">
         <v>354</v>
@@ -28801,7 +28801,7 @@
         <v>331</v>
       </c>
       <c r="C313" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="D313" t="s">
         <v>354</v>
@@ -28872,7 +28872,7 @@
         <v>332</v>
       </c>
       <c r="C314" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D314" t="s">
         <v>354</v>
@@ -28946,7 +28946,7 @@
         <v>333</v>
       </c>
       <c r="C315" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="D315" t="s">
         <v>378</v>
@@ -28988,7 +28988,7 @@
         <v>1604</v>
       </c>
       <c r="AJ315" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK315" t="s">
         <v>1266</v>
@@ -29008,7 +29008,7 @@
         <v>334</v>
       </c>
       <c r="C316" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="D316" t="s">
         <v>354</v>
@@ -29076,7 +29076,7 @@
         <v>335</v>
       </c>
       <c r="C317" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D317" t="s">
         <v>378</v>
@@ -29130,7 +29130,7 @@
         <v>1609</v>
       </c>
       <c r="AJ317" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK317" t="s">
         <v>1273</v>
@@ -29150,7 +29150,7 @@
         <v>336</v>
       </c>
       <c r="C318" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D318" t="s">
         <v>352</v>
@@ -29206,7 +29206,7 @@
         <v>337</v>
       </c>
       <c r="C319" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D319" t="s">
         <v>348</v>
@@ -29266,7 +29266,7 @@
         <v>1239</v>
       </c>
       <c r="AK319" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL319" t="s">
         <v>1283</v>
@@ -29283,7 +29283,7 @@
         <v>338</v>
       </c>
       <c r="C320" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D320" t="s">
         <v>352</v>
@@ -29331,25 +29331,25 @@
         <v>1234</v>
       </c>
       <c r="AJ320" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="AK320" t="s">
         <v>1266</v>
       </c>
       <c r="AL320" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AM320" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="AN320" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="AO320" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="AP320" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="321" spans="1:49" x14ac:dyDescent="0.3">
@@ -29360,7 +29360,7 @@
         <v>339</v>
       </c>
       <c r="C321" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D321" t="s">
         <v>356</v>
@@ -29408,7 +29408,7 @@
         <v>1508</v>
       </c>
       <c r="AJ321" t="s">
-        <v>1669</v>
+        <v>2075</v>
       </c>
       <c r="AK321" t="s">
         <v>1273</v>
@@ -29417,37 +29417,37 @@
         <v>1284</v>
       </c>
       <c r="AM321" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="AN321" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="AO321" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="AP321" t="s">
+        <v>1728</v>
+      </c>
+      <c r="AQ321" t="s">
         <v>1731</v>
       </c>
-      <c r="AQ321" t="s">
+      <c r="AR321" t="s">
+        <v>1732</v>
+      </c>
+      <c r="AS321" t="s">
+        <v>1733</v>
+      </c>
+      <c r="AT321" t="s">
         <v>1734</v>
       </c>
-      <c r="AR321" t="s">
+      <c r="AU321" t="s">
         <v>1735</v>
       </c>
-      <c r="AS321" t="s">
+      <c r="AV321" t="s">
         <v>1736</v>
       </c>
-      <c r="AT321" t="s">
+      <c r="AW321" t="s">
         <v>1737</v>
-      </c>
-      <c r="AU321" t="s">
-        <v>1738</v>
-      </c>
-      <c r="AV321" t="s">
-        <v>1739</v>
-      </c>
-      <c r="AW321" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="322" spans="1:49" x14ac:dyDescent="0.3">
@@ -29458,7 +29458,7 @@
         <v>340</v>
       </c>
       <c r="C322" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D322" t="s">
         <v>383</v>
@@ -29523,7 +29523,7 @@
         <v>341</v>
       </c>
       <c r="C323" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D323" t="s">
         <v>389</v>
@@ -29591,7 +29591,7 @@
         <v>342</v>
       </c>
       <c r="C324" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="D324" t="s">
         <v>367</v>
@@ -29674,7 +29674,7 @@
         <v>343</v>
       </c>
       <c r="C325" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D325" t="s">
         <v>383</v>
@@ -29742,7 +29742,7 @@
         <v>344</v>
       </c>
       <c r="C326" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="D326" t="s">
         <v>390</v>
@@ -29813,7 +29813,7 @@
         <v>345</v>
       </c>
       <c r="C327" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D327" t="s">
         <v>355</v>
@@ -29875,7 +29875,7 @@
         <v>346</v>
       </c>
       <c r="C328" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="D328" t="s">
         <v>351</v>
@@ -29943,7 +29943,7 @@
         <v>345</v>
       </c>
       <c r="C329" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D329" t="s">
         <v>355</v>
@@ -30005,19 +30005,19 @@
         <v>86</v>
       </c>
       <c r="C330" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D330" t="s">
         <v>347</v>
       </c>
       <c r="E330" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="G330" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="H330" t="s">
         <v>1236</v>
@@ -30032,7 +30032,7 @@
         <v>1251</v>
       </c>
       <c r="L330" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="M330" t="s">
         <v>1283</v>
@@ -30050,16 +30050,16 @@
         <v>1558</v>
       </c>
       <c r="R330" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="S330" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="AJ330" t="s">
         <v>1239</v>
       </c>
       <c r="AK330" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL330" t="s">
         <v>1283</v>
@@ -30079,7 +30079,7 @@
         <v>86</v>
       </c>
       <c r="C331" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D331" t="s">
         <v>347</v>
@@ -30088,10 +30088,10 @@
         <v>450</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="G331" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="H331" t="s">
         <v>1236</v>
@@ -30106,7 +30106,7 @@
         <v>1251</v>
       </c>
       <c r="L331" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="M331" t="s">
         <v>1283</v>
@@ -30124,19 +30124,19 @@
         <v>1558</v>
       </c>
       <c r="R331" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="S331" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="T331" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="AJ331" t="s">
         <v>1239</v>
       </c>
       <c r="AK331" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="AL331" t="s">
         <v>1283</v>
